--- a/excel2mysql/excels/game_testpai.xlsx
+++ b/excel2mysql/excels/game_testpai.xlsx
@@ -19,17 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)|PRI|auto_increment</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>RoomID</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>房间Id</t>
   </si>
   <si>
@@ -48,25 +54,167 @@
     <t>CardsName</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>卡牌类型名称</t>
   </si>
   <si>
     <t>chair_id</t>
   </si>
   <si>
+    <t>varchar(11)||</t>
+  </si>
+  <si>
     <t>座位id</t>
   </si>
   <si>
     <t>Cards</t>
   </si>
   <si>
+    <t>text||</t>
+  </si>
+  <si>
     <t>所有玩家卡牌</t>
   </si>
   <si>
     <t>IsAcivate</t>
   </si>
   <si>
+    <t>tinyint(1)||</t>
+  </si>
+  <si>
     <t>是否激活牌型</t>
+  </si>
+  <si>
+    <t>红中-抢杠胡</t>
+  </si>
+  <si>
+    <t>0#1#2#3</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,11,12,13,14,15#1,1,1,2,2,2,3,3,3,4,4,4,35#5,5,5,6,6,6,7,7,7,8,8,8,35#9,9,9,11,11,11,12,12,12,13,13,13,25</t>
+  </si>
+  <si>
+    <t>0#1#2</t>
+  </si>
+  <si>
+    <t>1，1，1，2，2，2，3，3，3，11，11#1，1，1，2，2，2，3，3，3，11，11#1，1，1，2，2，2，3，3，3，11，11</t>
+  </si>
+  <si>
+    <t>红中</t>
+  </si>
+  <si>
+    <t>1，1，1，2，2，2，3，3，3，11，11#1，1，1，2，2，2，3，3，3，11，11#1，1，1，2，2，2，3，3，3，11，11#1，1，1，2，2，2，3，3，3，11，11</t>
+  </si>
+  <si>
+    <t>漳浦麻将</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17,17</t>
+  </si>
+  <si>
+    <t>红中麻将</t>
+  </si>
+  <si>
+    <t>0#1</t>
+  </si>
+  <si>
+    <t>3,3,3,3,4,24,26,27,27,28,28,35,35,28#11,11,11,12,12,12,21,21,21,22,22,22,35</t>
+  </si>
+  <si>
+    <t>漳浦-吃碰杠胡</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17,18#2,3,5,6,8,9,12,14,15,16,17,19,21,22,24,26#1,1,1,21,23,25,25,27,28,28,29,31,33,35,37,37#2,3,9,9,11,11,11,13,13,13,18,18,18,34,34,34</t>
+  </si>
+  <si>
+    <t>漳浦-佰六</t>
+  </si>
+  <si>
+    <t>2,3,5,6,7,11,12,13,14,15,16,17,18,19,21,21#1,2,3,2,3,4,3,4,5,4,5,6,7,7,13,14</t>
+  </si>
+  <si>
+    <t>龙海麻将</t>
+  </si>
+  <si>
+    <t>1,1,1,16,2,3,4,5,6,7,8,8,11,12,13,14,15#15,15,15,21,21,21,22,22,23,22,23,23,24,24,25,26</t>
+  </si>
+  <si>
+    <t>平和麻将</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,6,6,7,7,7,8,8,9,9,9#1,2,3,4,5,16,16,16,17,17,17,18,18,18,19,19#1,2,3,4,5,26,26,26,27,27,27,28,28,28,29,29#1,2,3,4,5,31,31,31,32,32,32,33,33,33,34,34</t>
+  </si>
+  <si>
+    <t>云霄麻将</t>
+  </si>
+  <si>
+    <t>21,22,12,12,14,16,19,23,23,31,31,32,33,3#22,23,3,4,5,6,7,8,9,11,12,16,14#21,21,25,25,28,6,7,8,9,11,12,13,14#1,2,3,4,25,25,25,8,9,11,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17,17#22,23,3,4,5,6,7,8,9,11,12,13,14,15,16,17#21,21,3,4,5,6,7,8,9,11,12,13,14,15,16,17#1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,19</t>
+  </si>
+  <si>
+    <t>1,1,2,2,1,2,3,3,3,4,4,4,6,6#5,7,11,11,11,12,12,12,13,13,13,14,14#5,7,21,21,21,22,22,22,23,23,23,24,24#5,7,15,15,15,16,16,16,17,17,17,18,18</t>
+  </si>
+  <si>
+    <t>十三水</t>
+  </si>
+  <si>
+    <t>{"Laizi":[],"PublicCards":[],"CardData":[[33,49,9,35,20,5,38,55,13,29,45,61,18]]}</t>
+  </si>
+  <si>
+    <t>斗地主</t>
+  </si>
+  <si>
+    <t>{"Laizi":3,"Bankerards":[3,3,3],"CardData":[[4,4,4,5,5,5,6,6,6,7,7,7,8,9,10,11,12],[4,4,4,5,5,5,6,6,6,7,7,7,8,9,10,11,12],[4,4,4,5,5,5,6,6,6,7,7,7,8,9,10,11,12]]}</t>
+  </si>
+  <si>
+    <t>大牌牛牛</t>
+  </si>
+  <si>
+    <t>{"PublicCard":[6,9],"CardData":[[8,24,40,20,22]]}</t>
+  </si>
+  <si>
+    <t>2,37,36,11,14,17,21,24,27,31,32,33,34,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{"Laizi":10,"Bankerards":[8,78,79],"CardData":[[3,3,4,7,9,9,9,12,12,13,1,1,2,78,78,79,10],[12,12,1,2,3,4,5,6,7,8,9,1,2,3,4,5,6,7,8],[2,2,2,10,1,2,3,4,5,6,7,8,9,1,3,4,5,6,7]]}</t>
+  </si>
+  <si>
+    <t>十三水(hcm)</t>
+  </si>
+  <si>
+    <t>{"Laizi":[],"PublicCards":[],"CardData":[[36,19,2,8,7,38,21,36,11,10,9,56,57]]}</t>
+  </si>
+  <si>
+    <t>漳浦-八花胡</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,3,3,3,4,4,4,5,5,5,6</t>
+  </si>
+  <si>
+    <t>11,11,11,12,12,12,13,13,13,14,14,14,15,15,15,16,16#1,1,1,2,2,2,3,3,3,4,4,4,5,5,5,6#21,21,21,22,22,22,23,23,23,24,24,24,25,25,25,26#31,31,31,32,32,32,33,33,33,34,34,34,35,35,35,16</t>
+  </si>
+  <si>
+    <t>漳浦分饼</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,3,3,3,4,4,4,6,6#1,2,3,4,11,11,11,12,12,12,13,13,13#4,11,12,13,21,21,21,22,22,22,23,23,23#21,22,23,31,31,31,32,32,32,33,33,33,33</t>
+  </si>
+  <si>
+    <t>8,9,8,7,6,6,6,6,7,7,7,8,8,9,9,9#19,19,18,17,16,16,16,16,17,17,17,18,18,18,19,19#29,29,28,27,26,26,26,26,27,27,27,28,28,28,29,29#34,34,33,32,31,31,31,31,32,32,32,33,33,33,34,34</t>
+  </si>
+  <si>
+    <t>1,9,11,19,21,29,31,31,31,32,32,32,32,33</t>
+  </si>
+  <si>
+    <t>1,4,5,6,7,8,9,11,12,13,14,15,16,33#,2,3,21,21,21,22,22,22,23,23,28,28,32#2,3,24,24,24,25,25,25,26,26,29,29,31#1,9,31,31,31,32,32,32,11,19,33,33,33</t>
+  </si>
+  <si>
+    <t>云霄麻将清一色</t>
   </si>
 </sst>
 </file>
@@ -112,9 +260,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,25 +558,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -433,25 +584,727 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>837635</v>
+      </c>
+      <c r="C4">
+        <v>389</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>389</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6">
+        <v>311340</v>
+      </c>
+      <c r="C6">
+        <v>389</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>450545</v>
+      </c>
+      <c r="C7">
+        <v>391</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B8">
+        <v>255676</v>
+      </c>
+      <c r="C8">
+        <v>389</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>847902</v>
+      </c>
+      <c r="C9">
+        <v>391</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>341798</v>
+      </c>
+      <c r="C10">
+        <v>391</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B11">
+        <v>865970</v>
+      </c>
+      <c r="C11">
+        <v>393</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>899263</v>
+      </c>
+      <c r="C12">
+        <v>394</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B13">
+        <v>668032</v>
+      </c>
+      <c r="C13">
+        <v>392</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>831669</v>
+      </c>
+      <c r="C14">
+        <v>391</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B15">
+        <v>122121</v>
+      </c>
+      <c r="C15">
+        <v>392</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>668578</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>15</v>
+      </c>
+      <c r="B17">
+        <v>473450</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>856040</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>485105</v>
+      </c>
+      <c r="C19">
+        <v>392</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>881382</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>123466</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>342037</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>378260</v>
+      </c>
+      <c r="C23">
+        <v>391</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>177970</v>
+      </c>
+      <c r="C24">
+        <v>393</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>300346</v>
+      </c>
+      <c r="C25">
+        <v>391</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>104056</v>
+      </c>
+      <c r="C26">
+        <v>394</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>580390</v>
+      </c>
+      <c r="C27">
+        <v>392</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>631577</v>
+      </c>
+      <c r="C28">
+        <v>392</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>777149</v>
+      </c>
+      <c r="C29">
+        <v>392</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel2mysql/excels/game_testpai.xlsx
+++ b/excel2mysql/excels/game_testpai.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -138,13 +138,13 @@
     <t>龙海麻将</t>
   </si>
   <si>
-    <t>1,1,1,16,2,3,4,5,6,7,8,8,11,12,13,14,15#15,15,15,21,21,21,22,22,23,22,23,23,24,24,25,26</t>
+    <t>1,1,1,1,2,3,4,5,6,7,8,9,11,12,13,14,15</t>
   </si>
   <si>
     <t>平和麻将</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,6,6,7,7,7,8,8,9,9,9#1,2,3,4,5,16,16,16,17,17,17,18,18,18,19,19#1,2,3,4,5,26,26,26,27,27,27,28,28,28,29,29#1,2,3,4,5,31,31,31,32,32,32,33,33,33,34,34</t>
+    <t>1,2,3,4,5,6,6,6,7,7,7,8,8,9,9#1,2,3,4,5,16,16,16,17,17,17,18,18,18,19,19#1,2,3,4,5,26,26,26,27,27,27,28,28,28,29,29#1,2,3,4,5,31,31,31,32,32,32,33,33,33,34,34</t>
   </si>
   <si>
     <t>云霄麻将</t>
@@ -153,7 +153,7 @@
     <t>21,22,12,12,14,16,19,23,23,31,31,32,33,3#22,23,3,4,5,6,7,8,9,11,12,16,14#21,21,25,25,28,6,7,8,9,11,12,13,14#1,2,3,4,25,25,25,8,9,11,12,13,14</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17,17#22,23,3,4,5,6,7,8,9,11,12,13,14,15,16,17#21,21,3,4,5,6,7,8,9,11,12,13,14,15,16,17#1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,19</t>
+    <t>21,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17,18#22,23,3,4,5,6,7,8,9,11,12,13,14,15,16,17#21,21,3,4,5,6,7,8,9,11,12,13,14,15,16,17#1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17</t>
   </si>
   <si>
     <t>1,1,2,2,1,2,3,3,3,4,4,4,6,6#5,7,11,11,11,12,12,12,13,13,13,14,14#5,7,21,21,21,22,22,22,23,23,23,24,24#5,7,15,15,15,16,16,16,17,17,17,18,18</t>
@@ -177,7 +177,7 @@
     <t>{"PublicCard":[6,9],"CardData":[[8,24,40,20,22]]}</t>
   </si>
   <si>
-    <t>2,37,36,11,14,17,21,24,27,31,32,33,34,35</t>
+    <t>21,22,23,31,31,31,32,32,32,33,33,33,33,34</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -196,7 +196,7 @@
     <t>1,1,1,2,2,2,3,3,3,4,4,4,5,5,5,6</t>
   </si>
   <si>
-    <t>11,11,11,12,12,12,13,13,13,14,14,14,15,15,15,16,16#1,1,1,2,2,2,3,3,3,4,4,4,5,5,5,6#21,21,21,22,22,22,23,23,23,24,24,24,25,25,25,26#31,31,31,32,32,32,33,33,33,34,34,34,35,35,35,16</t>
+    <t>1,2,3,5,6,7,16,17,18,22,23,26,27,28,29,21,29#1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17#1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17#1,2,3,4,5,6,7,8,9,11,12,13,14,15,16,17</t>
   </si>
   <si>
     <t>漳浦分饼</t>
@@ -205,16 +205,10 @@
     <t>1,1,1,2,2,2,3,3,3,4,4,4,6,6#1,2,3,4,11,11,11,12,12,12,13,13,13#4,11,12,13,21,21,21,22,22,22,23,23,23#21,22,23,31,31,31,32,32,32,33,33,33,33</t>
   </si>
   <si>
-    <t>8,9,8,7,6,6,6,6,7,7,7,8,8,9,9,9#19,19,18,17,16,16,16,16,17,17,17,18,18,18,19,19#29,29,28,27,26,26,26,26,27,27,27,28,28,28,29,29#34,34,33,32,31,31,31,31,32,32,32,33,33,33,34,34</t>
-  </si>
-  <si>
-    <t>1,9,11,19,21,29,31,31,31,32,32,32,32,33</t>
-  </si>
-  <si>
-    <t>1,4,5,6,7,8,9,11,12,13,14,15,16,33#,2,3,21,21,21,22,22,22,23,23,28,28,32#2,3,24,24,24,25,25,25,26,26,29,29,31#1,9,31,31,31,32,32,32,11,19,33,33,33</t>
-  </si>
-  <si>
-    <t>云霄麻将清一色</t>
+    <t>1,1,1,4,4,4,7,7,7,22,22,21,37,27,28,29</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,3,3,3,4,4,4,6,6#1,2,3,4,11,11,11,12,12,12,13,13,13#14,11,12,13,21,21,21,22,22,22,23,23,23#21,22,23,31,31,31,32,32,32,33,33,33,33</t>
   </si>
 </sst>
 </file>
@@ -547,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>865970</v>
+        <v>827227</v>
       </c>
       <c r="C11">
         <v>393</v>
@@ -829,8 +823,8 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -844,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>899263</v>
+        <v>752773</v>
       </c>
       <c r="C12">
         <v>394</v>
@@ -896,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>831669</v>
+        <v>814560</v>
       </c>
       <c r="C14">
         <v>391</v>
@@ -1026,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>485105</v>
+        <v>694310</v>
       </c>
       <c r="C19">
         <v>392</v>
@@ -1156,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>177970</v>
+        <v>983025</v>
       </c>
       <c r="C24">
         <v>393</v>
@@ -1208,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>104056</v>
+        <v>561148</v>
       </c>
       <c r="C26">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>61</v>
@@ -1234,10 +1228,10 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>580390</v>
+        <v>283128</v>
       </c>
       <c r="C27">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1245,8 +1239,8 @@
       <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>23</v>
       </c>
       <c r="G27" t="s">
         <v>62</v>
@@ -1260,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>631577</v>
+        <v>497563</v>
       </c>
       <c r="C28">
         <v>392</v>
@@ -1275,35 +1269,9 @@
         <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>777149</v>
-      </c>
-      <c r="C29">
-        <v>392</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" t="b">
         <v>1</v>
       </c>
     </row>
